--- a/asobbs/ドキュメント/98_追加予定機能.xlsx
+++ b/asobbs/ドキュメント/98_追加予定機能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -323,6 +323,49 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装済み</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ
+ローカルで動いたがサーバーでは動かなかった。原因は、apacheで/をログイン画面に「転送」していたいたため。
+転送の際にクッキーがひきつがない。そこで「転送」ではなく「リダイレクト」に買えたらうまくいった</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -361,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,17 +427,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -699,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,9 +772,10 @@
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -739,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
@@ -762,8 +821,14 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
         <v>2</v>
@@ -787,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -807,7 +872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -829,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -841,7 +906,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -853,7 +918,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -865,7 +930,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -877,7 +942,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -889,7 +954,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>

--- a/asobbs/ドキュメント/98_追加予定機能.xlsx
+++ b/asobbs/ドキュメント/98_追加予定機能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -366,6 +366,103 @@
     </rPh>
     <rPh sb="96" eb="97">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り機能</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りの掲示板を設定して、ダッシュボードから一発で行けるようにする</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッパツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームメンバー設定方法</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスや学年で設定できるようにする
+DBのスキーマ、インターフェース、データの更新方法を変更する必要あり</t>
+    <rPh sb="4" eb="6">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X年生とかいう設定方法がめんどくさい</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割など頻繁にアクセスする掲示板へワンタッチでアクセスできるようにしたい</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ケイジバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -442,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,6 +549,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,14 +863,14 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="77.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
@@ -782,7 +885,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -806,7 +909,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -836,7 +939,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -860,7 +963,7 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -880,7 +983,7 @@
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
@@ -894,29 +997,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -924,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -936,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -948,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -960,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>

--- a/asobbs/ドキュメント/98_追加予定機能.xlsx
+++ b/asobbs/ドキュメント/98_追加予定機能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -463,6 +463,73 @@
     </rPh>
     <rPh sb="14" eb="17">
       <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュボードにルーム名を表示する</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字が長くなる</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装済み
+2019/5/8</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北原先生、川野の先生の要望により追加</t>
+    <rPh sb="0" eb="2">
+      <t>キタハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カワノ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -535,11 +602,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -556,6 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -862,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,17 +1122,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="1"/>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">

--- a/asobbs/ドキュメント/98_追加予定機能.xlsx
+++ b/asobbs/ドキュメント/98_追加予定機能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -530,6 +530,116 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知機能</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールで通知</t>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下書き機能</t>
+    <rPh sb="0" eb="2">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いったん保留したい</t>
+    <rPh sb="4" eb="6">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生に通知したい</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下書きテーブルを追加して、下書きテーブルに情報を保存
+メニューに「下書き」を追加していつでも見れるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転科機能</t>
+    <rPh sb="0" eb="2">
+      <t>テンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒業機能</t>
+    <rPh sb="0" eb="2">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学科マスタ管理</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -633,6 +743,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -937,10 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -948,7 +1062,7 @@
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="77.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -978,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1010,7 +1124,7 @@
     </row>
     <row r="3" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A13" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1098,7 +1212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1153,23 +1267,43 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1177,12 +1311,46 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asobbs/ドキュメント/98_追加予定機能.xlsx
+++ b/asobbs/ドキュメント/98_追加予定機能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -640,6 +640,50 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDFブラウザ内閲覧</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLしたくない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの拡張子がPDFの時はContentTypeを application/pdf に変更する</t>
+    <rPh sb="5" eb="8">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正済み</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1048,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1352,6 +1396,30 @@
       </c>
       <c r="G13" s="1"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asobbs/ドキュメント/98_追加予定機能.xlsx
+++ b/asobbs/ドキュメント/98_追加予定機能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1098,7 +1098,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1255,6 +1255,9 @@
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -1395,6 +1398,9 @@
         <v>12</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
